--- a/SU - Suspension/Cost/SU_A0800.xlsx
+++ b/SU - Suspension/Cost/SU_A0800.xlsx
@@ -2302,11 +2302,11 @@
   <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2482,13 +2482,16 @@
         <f>'SU A0800'!B3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C8" s="120" t="s">
-        <v>128</v>
+      <c r="C8" s="120" t="str">
+        <f>SU_0800_001</f>
+        <v>SU 0800 001</v>
       </c>
       <c r="D8" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="128"/>
+      <c r="E8" s="128" t="s">
+        <v>128</v>
+      </c>
       <c r="F8" s="129" t="s">
         <v>72</v>
       </c>
@@ -2527,13 +2530,16 @@
         <f>'SU A0800'!$B$3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C9" s="120" t="s">
-        <v>128</v>
+      <c r="C9" s="120" t="str">
+        <f>SU_0800_003</f>
+        <v>SU 0800 003</v>
       </c>
       <c r="D9" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="128" t="s">
+        <v>128</v>
+      </c>
       <c r="F9" s="129" t="s">
         <v>71</v>
       </c>
@@ -2572,13 +2578,16 @@
         <f>'SU A0800'!$B$3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>128</v>
+      <c r="C10" s="120" t="str">
+        <f>SU_0800_004</f>
+        <v>SU 0800 004</v>
       </c>
       <c r="D10" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="128"/>
+      <c r="E10" s="128" t="s">
+        <v>128</v>
+      </c>
       <c r="F10" s="129" t="s">
         <v>119</v>
       </c>
